--- a/house.xlsx
+++ b/house.xlsx
@@ -457,32 +457,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12,000元/月
+          <t xml:space="preserve">10,500元/月
                     </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中山國小捷運新裝潢大窗陽台採光洗衣機</t>
+          <t>降價了全新陽光套房*個人洗衣機*
+                    優選好屋</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中山區-民權東路二段</t>
+          <t xml:space="preserve"> 大安區-通化街39巷</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 2778公尺</t>
+          <t>距忠孝復興捷運站 1700公尺</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13155257.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13072950.html")</f>
         <v/>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>獨立套房  8坪 4F/4F</t>
+          <t>獨立套房  8坪 2F/4F</t>
         </is>
       </c>
     </row>
@@ -495,122 +496,122 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>新裝潢挑高夾層乾溼分離大窗獨立洗衣機</t>
+          <t>中山國小捷運新裝潢大窗陽台採光洗衣機</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 松山區-民生東路三段</t>
+          <t xml:space="preserve"> 中山區-民權東路二段</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 1633公尺</t>
+          <t>距忠孝復興捷運站 2778公尺</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13171590.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13155257.html")</f>
         <v/>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>獨立套房  12坪 3F/4F</t>
+          <t>獨立套房  8坪 4F/4F</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">11,999元/月
+          <t xml:space="preserve">12,000元/月
                     </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>松江/吉林/民生/錦州行天宮捷運靜巷套房</t>
+          <t>新裝潢挑高夾層乾溼分離大窗獨立洗衣機</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>依現場 中山區-吉林路161巷1弄8號</t>
+          <t xml:space="preserve"> 松山區-民生東路三段</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 2392公尺</t>
+          <t>距忠孝復興捷運站 1633公尺</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13158906.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13171590.html")</f>
         <v/>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>獨立套房  9坪 3F/4F</t>
+          <t>獨立套房  12坪 3F/4F</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">12,000元/月
+          <t xml:space="preserve">9,800元/月
                     </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>獨立套房鄰近中山國中站交通方便生活機能優</t>
+          <t>近中山國小捷運站,使用空間大</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 松山區-民權東路三段103巷</t>
+          <t xml:space="preserve"> 中山區-民權東路二段</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 2472公尺</t>
+          <t>距忠孝復興捷運站 2809公尺</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13085216.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13110783.html")</f>
         <v/>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>獨立套房  10坪 1F/5F</t>
+          <t>分租套房  9坪 2F/12F</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9,800元/月
+          <t xml:space="preserve">11,999元/月
                     </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>近中山國小捷運站,使用空間大</t>
+          <t>松江/吉林/民生/錦州行天宮捷運靜巷套房</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中山區-民權東路二段</t>
+          <t>依現場 中山區-吉林路161巷1弄8號</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 2809公尺</t>
+          <t>距忠孝復興捷運站 2392公尺</t>
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13110783.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13158906.html")</f>
         <v/>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>分租套房  9坪 2F/12F</t>
+          <t>獨立套房  9坪 3F/4F</t>
         </is>
       </c>
     </row>
@@ -623,59 +624,58 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>捷運市中心中山國小站漂亮套房</t>
+          <t>獨立套房鄰近中山國中站交通方便生活機能優</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中山區-新生北路三段87巷</t>
+          <t xml:space="preserve"> 松山區-民權東路三段103巷</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 3243公尺</t>
+          <t>距忠孝復興捷運站 2472公尺</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13038867.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13085216.html")</f>
         <v/>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>整層住家 1房1廳 12坪 4F/4F</t>
+          <t>獨立套房  10坪 1F/5F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10,500元/月
+          <t xml:space="preserve">12,000元/月
                     </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>降價了全新陽光套房*個人洗衣機*
-                    優選好屋</t>
+          <t>捷運市中心中山國小站漂亮套房</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 大安區-通化街39巷</t>
+          <t xml:space="preserve"> 中山區-新生北路三段87巷</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>距忠孝復興捷運站 1700公尺</t>
+          <t>距忠孝復興捷運站 3243公尺</t>
         </is>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13072950.html")</f>
+        <f>HYPERLINK("https://rent.591.com.tw/rent-detail-13038867.html")</f>
         <v/>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>獨立套房  8坪 2F/4F</t>
+          <t>整層住家 1房1廳 12坪 4F/4F</t>
         </is>
       </c>
     </row>
